--- a/Projektdokumentation/Meilensteintrend analyse.xlsx
+++ b/Projektdokumentation/Meilensteintrend analyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic_\Documents\Unreal Projects\RotS\Projektdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9DBF9B-6AB7-4B69-BB4F-0967391E64B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49B2B34-4967-4A4C-84C8-C015CFEDC42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13224" yWindow="0" windowWidth="9912" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>Spielerfigur</t>
   </si>
   <si>
-    <t>Items</t>
-  </si>
-  <si>
     <t>Mapsbauen</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Musik</t>
+  </si>
+  <si>
+    <t>Items(Optional)</t>
   </si>
 </sst>
 </file>
@@ -1154,6 +1154,12 @@
                 <c:pt idx="4">
                   <c:v>45457</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45457</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1280,6 +1286,12 @@
                 <c:pt idx="4">
                   <c:v>45399</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>45399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45399</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1299,7 +1311,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Items</c:v>
+                  <c:v>Items(Optional)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20.03.2024</c:v>
@@ -1406,6 +1418,12 @@
                 <c:pt idx="4">
                   <c:v>45398</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>45398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45398</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1532,6 +1550,12 @@
                 <c:pt idx="4">
                   <c:v>45429</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45429</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1658,6 +1682,12 @@
                 <c:pt idx="4">
                   <c:v>45429</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45429</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1782,6 +1812,12 @@
                   <c:v>45436</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>45436</c:v>
                 </c:pt>
               </c:numCache>
@@ -1912,6 +1948,12 @@
                 <c:pt idx="4">
                   <c:v>45429</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45415</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1969,6 +2011,12 @@
                   <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -3476,8 +3524,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="D13:E13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3594,7 +3642,12 @@
       <c r="H4" s="2">
         <v>45457</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="J4" s="2">
+        <v>45457</v>
+      </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3618,14 +3671,18 @@
       <c r="H5" s="2">
         <v>45399</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="2">
+        <v>45399</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45399</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>45371</v>
@@ -3645,8 +3702,12 @@
       <c r="H6" s="2">
         <v>45398</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2">
+        <v>45398</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45398</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3657,7 +3718,7 @@
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
         <v>45427</v>
@@ -3675,12 +3736,18 @@
         <v>45427</v>
       </c>
       <c r="H7" s="2">
+        <v>45429</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45429</v>
+      </c>
+      <c r="J7" s="2">
         <v>45429</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>45385</v>
@@ -3698,12 +3765,18 @@
         <v>45385</v>
       </c>
       <c r="H8" s="2">
+        <v>45429</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45429</v>
+      </c>
+      <c r="J8" s="2">
         <v>45429</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>45436</v>
@@ -3721,12 +3794,18 @@
         <v>45436</v>
       </c>
       <c r="H9" s="2">
+        <v>45436</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45436</v>
+      </c>
+      <c r="J9" s="2">
         <v>45436</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>45385</v>
@@ -3745,11 +3824,17 @@
       </c>
       <c r="H10" s="2">
         <v>45429</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45429</v>
+      </c>
+      <c r="J10" s="2">
+        <v>45415</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>45443</v>
@@ -3767,6 +3852,12 @@
         <v>45443</v>
       </c>
       <c r="H11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="I11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="J11" s="2">
         <v>45422</v>
       </c>
     </row>

--- a/Projektdokumentation/Meilensteintrend analyse.xlsx
+++ b/Projektdokumentation/Meilensteintrend analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic_\Documents\Unreal Projects\RotS\Projektdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49B2B34-4967-4A4C-84C8-C015CFEDC42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB82C210-830B-4D0D-9F95-43F2230F9C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2842,13 +2842,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>270510</xdr:colOff>
+      <xdr:colOff>297404</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>127635</xdr:colOff>
+      <xdr:colOff>154529</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
@@ -3881,9 +3881,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4031,19 +4034,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4067,9 +4066,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projektdokumentation/Meilensteintrend analyse.xlsx
+++ b/Projektdokumentation/Meilensteintrend analyse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic_\Documents\Unreal Projects\RotS\Projektdokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43650\Documents\Unreal Projects\Revenge_of_the_Samurai\Projektdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB82C210-830B-4D0D-9F95-43F2230F9C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E88A2-B64F-48A2-95D3-580D856F60F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1160,6 +1160,9 @@
                 <c:pt idx="6">
                   <c:v>45457</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>45457</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1292,6 +1295,9 @@
                 <c:pt idx="6">
                   <c:v>45399</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>45399</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1424,6 +1430,9 @@
                 <c:pt idx="6">
                   <c:v>45398</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>45398</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1556,6 +1565,9 @@
                 <c:pt idx="6">
                   <c:v>45429</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>45429</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1688,6 +1700,9 @@
                 <c:pt idx="6">
                   <c:v>45429</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>45429</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1818,6 +1833,9 @@
                   <c:v>45436</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45436</c:v>
                 </c:pt>
               </c:numCache>
@@ -1954,6 +1972,9 @@
                 <c:pt idx="6">
                   <c:v>45415</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>45415</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2017,6 +2038,9 @@
                   <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -3524,8 +3548,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3648,6 +3672,9 @@
       <c r="J4" s="2">
         <v>45457</v>
       </c>
+      <c r="K4" s="2">
+        <v>45457</v>
+      </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3677,7 +3704,9 @@
       <c r="J5" s="2">
         <v>45399</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>45399</v>
+      </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -3708,7 +3737,9 @@
       <c r="J6" s="2">
         <v>45398</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>45398</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -3744,6 +3775,9 @@
       <c r="J7" s="2">
         <v>45429</v>
       </c>
+      <c r="K7" s="2">
+        <v>45429</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -3773,6 +3807,9 @@
       <c r="J8" s="2">
         <v>45429</v>
       </c>
+      <c r="K8" s="2">
+        <v>45429</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -3802,6 +3839,9 @@
       <c r="J9" s="2">
         <v>45436</v>
       </c>
+      <c r="K9" s="2">
+        <v>45436</v>
+      </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -3831,6 +3871,9 @@
       <c r="J10" s="2">
         <v>45415</v>
       </c>
+      <c r="K10" s="2">
+        <v>45415</v>
+      </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -3858,6 +3901,9 @@
         <v>45422</v>
       </c>
       <c r="J11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="K11" s="2">
         <v>45422</v>
       </c>
     </row>

--- a/Projektdokumentation/Meilensteintrend analyse.xlsx
+++ b/Projektdokumentation/Meilensteintrend analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43650\Documents\Unreal Projects\Revenge_of_the_Samurai\Projektdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E88A2-B64F-48A2-95D3-580D856F60F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF12A6C-BE1F-45BD-8C4D-8F294441624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,6 +1163,21 @@
                 <c:pt idx="7">
                   <c:v>45457</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45457</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1298,6 +1313,21 @@
                 <c:pt idx="7">
                   <c:v>45399</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45408</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1433,6 +1463,21 @@
                 <c:pt idx="7">
                   <c:v>45398</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45443</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1568,6 +1613,21 @@
                 <c:pt idx="7">
                   <c:v>45429</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45436</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1703,6 +1763,21 @@
                 <c:pt idx="7">
                   <c:v>45429</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45457</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1837,6 +1912,21 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,6 +2065,21 @@
                 <c:pt idx="7">
                   <c:v>45415</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45415</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2041,6 +2146,21 @@
                   <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -3549,7 +3669,7 @@
   <dimension ref="B1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3675,6 +3795,21 @@
       <c r="K4" s="2">
         <v>45457</v>
       </c>
+      <c r="L4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="N4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="P4" s="2">
+        <v>45457</v>
+      </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3707,7 +3842,21 @@
       <c r="K5" s="2">
         <v>45399</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>45399</v>
+      </c>
+      <c r="M5" s="2">
+        <v>45408</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45408</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45408</v>
+      </c>
+      <c r="P5" s="2">
+        <v>45408</v>
+      </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -3740,11 +3889,21 @@
       <c r="K6" s="2">
         <v>45398</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="L6" s="2">
+        <v>45398</v>
+      </c>
+      <c r="M6" s="2">
+        <v>45408</v>
+      </c>
+      <c r="N6" s="2">
+        <v>45443</v>
+      </c>
+      <c r="O6" s="2">
+        <v>45443</v>
+      </c>
+      <c r="P6" s="2">
+        <v>45443</v>
+      </c>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
@@ -3778,6 +3937,21 @@
       <c r="K7" s="2">
         <v>45429</v>
       </c>
+      <c r="L7" s="2">
+        <v>45429</v>
+      </c>
+      <c r="M7" s="2">
+        <v>45429</v>
+      </c>
+      <c r="N7" s="2">
+        <v>45436</v>
+      </c>
+      <c r="O7" s="2">
+        <v>45436</v>
+      </c>
+      <c r="P7" s="2">
+        <v>45436</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -3810,6 +3984,21 @@
       <c r="K8" s="2">
         <v>45429</v>
       </c>
+      <c r="L8" s="2">
+        <v>45429</v>
+      </c>
+      <c r="M8" s="2">
+        <v>45429</v>
+      </c>
+      <c r="N8" s="2">
+        <v>45429</v>
+      </c>
+      <c r="O8" s="2">
+        <v>45436</v>
+      </c>
+      <c r="P8" s="2">
+        <v>45457</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -3842,6 +4031,21 @@
       <c r="K9" s="2">
         <v>45436</v>
       </c>
+      <c r="L9" s="2">
+        <v>45436</v>
+      </c>
+      <c r="M9" s="2">
+        <v>45436</v>
+      </c>
+      <c r="N9" s="2">
+        <v>45436</v>
+      </c>
+      <c r="O9" s="2">
+        <v>45443</v>
+      </c>
+      <c r="P9" s="2">
+        <v>45450</v>
+      </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -3874,6 +4078,21 @@
       <c r="K10" s="2">
         <v>45415</v>
       </c>
+      <c r="L10" s="2">
+        <v>45415</v>
+      </c>
+      <c r="M10" s="2">
+        <v>45415</v>
+      </c>
+      <c r="N10" s="2">
+        <v>45415</v>
+      </c>
+      <c r="O10" s="2">
+        <v>45415</v>
+      </c>
+      <c r="P10" s="2">
+        <v>45415</v>
+      </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -3904,6 +4123,21 @@
         <v>45422</v>
       </c>
       <c r="K11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="L11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="M11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="N11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="O11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="P11" s="2">
         <v>45422</v>
       </c>
     </row>
@@ -3927,12 +4161,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4080,15 +4311,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4112,10 +4347,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projektdokumentation/Meilensteintrend analyse.xlsx
+++ b/Projektdokumentation/Meilensteintrend analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43650\Documents\Unreal Projects\Revenge_of_the_Samurai\Projektdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF12A6C-BE1F-45BD-8C4D-8F294441624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E88A2-B64F-48A2-95D3-580D856F60F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,21 +1163,6 @@
                 <c:pt idx="7">
                   <c:v>45457</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>45457</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45457</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45457</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45457</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45457</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1313,21 +1298,6 @@
                 <c:pt idx="7">
                   <c:v>45399</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>45399</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45408</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45408</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45408</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45408</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1463,21 +1433,6 @@
                 <c:pt idx="7">
                   <c:v>45398</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>45398</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45408</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45443</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45443</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45443</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1613,21 +1568,6 @@
                 <c:pt idx="7">
                   <c:v>45429</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>45429</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45429</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45436</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1763,21 +1703,6 @@
                 <c:pt idx="7">
                   <c:v>45429</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>45429</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45429</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45429</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45457</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1912,21 +1837,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45443</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,21 +1975,6 @@
                 <c:pt idx="7">
                   <c:v>45415</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>45415</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45415</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45415</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45415</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45415</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2146,21 +2041,6 @@
                   <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45422</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45422</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45422</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45422</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45422</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -3669,7 +3549,7 @@
   <dimension ref="B1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3795,21 +3675,6 @@
       <c r="K4" s="2">
         <v>45457</v>
       </c>
-      <c r="L4" s="2">
-        <v>45457</v>
-      </c>
-      <c r="M4" s="2">
-        <v>45457</v>
-      </c>
-      <c r="N4" s="2">
-        <v>45457</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45457</v>
-      </c>
-      <c r="P4" s="2">
-        <v>45457</v>
-      </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3842,21 +3707,7 @@
       <c r="K5" s="2">
         <v>45399</v>
       </c>
-      <c r="L5" s="2">
-        <v>45399</v>
-      </c>
-      <c r="M5" s="2">
-        <v>45408</v>
-      </c>
-      <c r="N5" s="2">
-        <v>45408</v>
-      </c>
-      <c r="O5" s="2">
-        <v>45408</v>
-      </c>
-      <c r="P5" s="2">
-        <v>45408</v>
-      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -3889,21 +3740,11 @@
       <c r="K6" s="2">
         <v>45398</v>
       </c>
-      <c r="L6" s="2">
-        <v>45398</v>
-      </c>
-      <c r="M6" s="2">
-        <v>45408</v>
-      </c>
-      <c r="N6" s="2">
-        <v>45443</v>
-      </c>
-      <c r="O6" s="2">
-        <v>45443</v>
-      </c>
-      <c r="P6" s="2">
-        <v>45443</v>
-      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
@@ -3937,21 +3778,6 @@
       <c r="K7" s="2">
         <v>45429</v>
       </c>
-      <c r="L7" s="2">
-        <v>45429</v>
-      </c>
-      <c r="M7" s="2">
-        <v>45429</v>
-      </c>
-      <c r="N7" s="2">
-        <v>45436</v>
-      </c>
-      <c r="O7" s="2">
-        <v>45436</v>
-      </c>
-      <c r="P7" s="2">
-        <v>45436</v>
-      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -3984,21 +3810,6 @@
       <c r="K8" s="2">
         <v>45429</v>
       </c>
-      <c r="L8" s="2">
-        <v>45429</v>
-      </c>
-      <c r="M8" s="2">
-        <v>45429</v>
-      </c>
-      <c r="N8" s="2">
-        <v>45429</v>
-      </c>
-      <c r="O8" s="2">
-        <v>45436</v>
-      </c>
-      <c r="P8" s="2">
-        <v>45457</v>
-      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -4031,21 +3842,6 @@
       <c r="K9" s="2">
         <v>45436</v>
       </c>
-      <c r="L9" s="2">
-        <v>45436</v>
-      </c>
-      <c r="M9" s="2">
-        <v>45436</v>
-      </c>
-      <c r="N9" s="2">
-        <v>45436</v>
-      </c>
-      <c r="O9" s="2">
-        <v>45443</v>
-      </c>
-      <c r="P9" s="2">
-        <v>45450</v>
-      </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -4078,21 +3874,6 @@
       <c r="K10" s="2">
         <v>45415</v>
       </c>
-      <c r="L10" s="2">
-        <v>45415</v>
-      </c>
-      <c r="M10" s="2">
-        <v>45415</v>
-      </c>
-      <c r="N10" s="2">
-        <v>45415</v>
-      </c>
-      <c r="O10" s="2">
-        <v>45415</v>
-      </c>
-      <c r="P10" s="2">
-        <v>45415</v>
-      </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -4123,21 +3904,6 @@
         <v>45422</v>
       </c>
       <c r="K11" s="2">
-        <v>45422</v>
-      </c>
-      <c r="L11" s="2">
-        <v>45422</v>
-      </c>
-      <c r="M11" s="2">
-        <v>45422</v>
-      </c>
-      <c r="N11" s="2">
-        <v>45422</v>
-      </c>
-      <c r="O11" s="2">
-        <v>45422</v>
-      </c>
-      <c r="P11" s="2">
         <v>45422</v>
       </c>
     </row>
@@ -4161,9 +3927,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4311,19 +4080,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4347,9 +4112,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projektdokumentation/Meilensteintrend analyse.xlsx
+++ b/Projektdokumentation/Meilensteintrend analyse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43650\Documents\Unreal Projects\Revenge_of_the_Samurai\Projektdokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic_\Documents\Unreal Projects\RotS\Projektdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E88A2-B64F-48A2-95D3-580D856F60F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5520E-594B-42FB-9B79-6BC120C1DD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1163,6 +1163,24 @@
                 <c:pt idx="7">
                   <c:v>45457</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45457</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1298,6 +1316,18 @@
                 <c:pt idx="7">
                   <c:v>45399</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45399</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1433,6 +1463,39 @@
                 <c:pt idx="7">
                   <c:v>45398</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45460</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1568,6 +1631,24 @@
                 <c:pt idx="7">
                   <c:v>45429</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45429</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1703,6 +1784,39 @@
                 <c:pt idx="7">
                   <c:v>45429</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45460</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1837,6 +1951,24 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,6 +2107,24 @@
                 <c:pt idx="7">
                   <c:v>45415</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45415</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2041,6 +2191,24 @@
                   <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>45422</c:v>
                 </c:pt>
               </c:numCache>
@@ -2902,15 +3070,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:colOff>233979</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>36755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>512445</xdr:colOff>
+      <xdr:colOff>548304</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:rowOff>27230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2928,8 +3096,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2552700" y="3154680"/>
-          <a:ext cx="10517505" cy="4196715"/>
+          <a:off x="2600661" y="3084755"/>
+          <a:ext cx="10569949" cy="4114240"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -3548,8 +3716,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3675,6 +3843,29 @@
       <c r="K4" s="2">
         <v>45457</v>
       </c>
+      <c r="L4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="N4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="P4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3707,7 +3898,20 @@
       <c r="K5" s="2">
         <v>45399</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>45399</v>
+      </c>
+      <c r="M5" s="2">
+        <v>45399</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45399</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45399</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -3740,12 +3944,39 @@
       <c r="K6" s="2">
         <v>45398</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="L6" s="2">
+        <v>45460</v>
+      </c>
+      <c r="M6" s="2">
+        <v>45460</v>
+      </c>
+      <c r="N6" s="2">
+        <v>45460</v>
+      </c>
+      <c r="O6" s="2">
+        <v>45460</v>
+      </c>
+      <c r="P6" s="2">
+        <v>45460</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>45460</v>
+      </c>
+      <c r="R6" s="2">
+        <v>45460</v>
+      </c>
+      <c r="S6" s="2">
+        <v>45460</v>
+      </c>
+      <c r="T6" s="2">
+        <v>45460</v>
+      </c>
+      <c r="U6" s="2">
+        <v>45460</v>
+      </c>
+      <c r="V6" s="2">
+        <v>45460</v>
+      </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -3778,6 +4009,24 @@
       <c r="K7" s="2">
         <v>45429</v>
       </c>
+      <c r="L7" s="2">
+        <v>45429</v>
+      </c>
+      <c r="M7" s="2">
+        <v>45429</v>
+      </c>
+      <c r="N7" s="2">
+        <v>45429</v>
+      </c>
+      <c r="O7" s="2">
+        <v>45429</v>
+      </c>
+      <c r="P7" s="2">
+        <v>45429</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>45429</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -3810,6 +4059,39 @@
       <c r="K8" s="2">
         <v>45429</v>
       </c>
+      <c r="L8" s="2">
+        <v>45429</v>
+      </c>
+      <c r="M8" s="2">
+        <v>45429</v>
+      </c>
+      <c r="N8" s="2">
+        <v>45429</v>
+      </c>
+      <c r="O8" s="2">
+        <v>45429</v>
+      </c>
+      <c r="P8" s="2">
+        <v>45429</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>45460</v>
+      </c>
+      <c r="R8" s="2">
+        <v>45460</v>
+      </c>
+      <c r="S8" s="2">
+        <v>45460</v>
+      </c>
+      <c r="T8" s="2">
+        <v>45460</v>
+      </c>
+      <c r="U8" s="2">
+        <v>45460</v>
+      </c>
+      <c r="V8" s="2">
+        <v>45460</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -3842,6 +4124,24 @@
       <c r="K9" s="2">
         <v>45436</v>
       </c>
+      <c r="L9" s="2">
+        <v>45436</v>
+      </c>
+      <c r="M9" s="2">
+        <v>45436</v>
+      </c>
+      <c r="N9" s="2">
+        <v>45443</v>
+      </c>
+      <c r="O9" s="2">
+        <v>45443</v>
+      </c>
+      <c r="P9" s="2">
+        <v>45443</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>45443</v>
+      </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -3874,6 +4174,24 @@
       <c r="K10" s="2">
         <v>45415</v>
       </c>
+      <c r="L10" s="2">
+        <v>45415</v>
+      </c>
+      <c r="M10" s="2">
+        <v>45415</v>
+      </c>
+      <c r="N10" s="2">
+        <v>45415</v>
+      </c>
+      <c r="O10" s="2">
+        <v>45415</v>
+      </c>
+      <c r="P10" s="2">
+        <v>45415</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>45415</v>
+      </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -3904,6 +4222,24 @@
         <v>45422</v>
       </c>
       <c r="K11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="L11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="M11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="N11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="O11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="P11" s="2">
+        <v>45422</v>
+      </c>
+      <c r="Q11" s="2">
         <v>45422</v>
       </c>
     </row>
@@ -3927,12 +4263,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4080,15 +4413,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4112,10 +4449,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projektdokumentation/Meilensteintrend analyse.xlsx
+++ b/Projektdokumentation/Meilensteintrend analyse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic_\Documents\Unreal Projects\RotS\Projektdokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43650\Documents\Unreal Projects\Revenge_of_the_Samurai\Projektdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5520E-594B-42FB-9B79-6BC120C1DD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A218ED-AEDC-4185-95FF-36EFA51A465B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,6 +1181,9 @@
                 <c:pt idx="13">
                   <c:v>45457</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45457</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1969,6 +1972,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,7 +3722,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -3861,7 +3867,9 @@
       <c r="Q4" s="2">
         <v>45457</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2">
+        <v>45457</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -4141,6 +4149,9 @@
       </c>
       <c r="Q9" s="2">
         <v>45443</v>
+      </c>
+      <c r="R9" s="2">
+        <v>45444</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
@@ -4263,9 +4274,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4413,19 +4427,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4449,9 +4459,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projektdokumentation/Meilensteintrend analyse.xlsx
+++ b/Projektdokumentation/Meilensteintrend analyse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic_\Documents\Unreal Projects\RotS\Projektdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5520E-594B-42FB-9B79-6BC120C1DD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E913A062-EFDF-4A00-90C7-9F796936C938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,6 +1181,21 @@
                 <c:pt idx="13">
                   <c:v>45457</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45457</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1649,6 +1664,12 @@
                 <c:pt idx="13">
                   <c:v>45429</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45429</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1794,28 +1815,25 @@
                   <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45429</c:v>
+                  <c:v>45460</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45429</c:v>
+                  <c:v>45460</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45460</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45460</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45460</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45460</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45460</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45460</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,8 +3734,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3861,11 +3879,21 @@
       <c r="Q4" s="2">
         <v>45457</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+      <c r="R4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="S4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="T4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="U4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="V4" s="2">
+        <v>45457</v>
+      </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -4027,6 +4055,12 @@
       <c r="Q7" s="2">
         <v>45429</v>
       </c>
+      <c r="R7" s="2">
+        <v>45429</v>
+      </c>
+      <c r="S7" s="2">
+        <v>45429</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -4069,29 +4103,27 @@
         <v>45429</v>
       </c>
       <c r="O8" s="2">
-        <v>45429</v>
+        <v>45460</v>
       </c>
       <c r="P8" s="2">
-        <v>45429</v>
+        <v>45460</v>
       </c>
       <c r="Q8" s="2">
         <v>45460</v>
       </c>
       <c r="R8" s="2">
-        <v>45460</v>
+        <v>45429</v>
       </c>
       <c r="S8" s="2">
-        <v>45460</v>
+        <v>45429</v>
       </c>
       <c r="T8" s="2">
-        <v>45460</v>
+        <v>45429</v>
       </c>
       <c r="U8" s="2">
-        <v>45460</v>
-      </c>
-      <c r="V8" s="2">
-        <v>45460</v>
-      </c>
+        <v>45429</v>
+      </c>
+      <c r="V8" s="2"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -4263,12 +4295,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6b0f0b887473c06d57ab47eb162c5adb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5943a525a29c358ca6f511ad1b1ad182" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -4412,6 +4438,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4422,15 +4454,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7148709D-0DB5-49EA-8EF5-E7B257E5A790}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4448,6 +4471,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
   <ds:schemaRefs>

--- a/Projektdokumentation/Meilensteintrend analyse.xlsx
+++ b/Projektdokumentation/Meilensteintrend analyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic_\Documents\Unreal Projects\RotS\Projektdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E913A062-EFDF-4A00-90C7-9F796936C938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1BC197-23EE-4838-BAAE-3C0F090E7A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1815,13 +1815,13 @@
                   <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45460</c:v>
+                  <c:v>45450</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45460</c:v>
+                  <c:v>45450</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45460</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45429</c:v>
@@ -1986,6 +1986,15 @@
                   <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
@@ -3734,8 +3743,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4103,13 +4112,13 @@
         <v>45429</v>
       </c>
       <c r="O8" s="2">
-        <v>45460</v>
+        <v>45450</v>
       </c>
       <c r="P8" s="2">
-        <v>45460</v>
+        <v>45450</v>
       </c>
       <c r="Q8" s="2">
-        <v>45460</v>
+        <v>45429</v>
       </c>
       <c r="R8" s="2">
         <v>45429</v>
@@ -4172,6 +4181,15 @@
         <v>45443</v>
       </c>
       <c r="Q9" s="2">
+        <v>45443</v>
+      </c>
+      <c r="R9" s="2">
+        <v>45443</v>
+      </c>
+      <c r="S9" s="2">
+        <v>45443</v>
+      </c>
+      <c r="T9" s="2">
         <v>45443</v>
       </c>
     </row>
@@ -4295,6 +4313,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6b0f0b887473c06d57ab47eb162c5adb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5943a525a29c358ca6f511ad1b1ad182" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -4438,12 +4462,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4454,6 +4472,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7148709D-0DB5-49EA-8EF5-E7B257E5A790}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4471,15 +4498,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B316C84-EE96-449D-8097-CFC5DD6BE1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
   <ds:schemaRefs>
